--- a/medicine/Mort/Exhumation/Exhumation.xlsx
+++ b/medicine/Mort/Exhumation/Exhumation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exhumation est l'acte par lequel un défunt est déterré après avoir été inhumé.
 La motivation pour l'exhumation d'un défunt peut être criminelle (profanation de tombe, nécrophilie comme dans le cas du Vampire du Montparnasse) ou bien légale (autopsie, transfert de la dépouille, reprise de la sépulture à l'expiration de la concession, fouille archéologique). D'autres raisons juridiques encore peuvent être invoquées, comme dans le cas de l'exhumation du pape Formose et du concile cadavérique.
 L'exhumation peut aussi être un acte formel en vertu d'un procès en béatification afin de vérifier l'incorruptibilité du corps.
-L'exhumation peut, enfin, faire partie d'un rite funéraire, comme à Madagascar avec le famadihana (retournement des morts), ou au Vietnam[1] avec le Bốc mộ[2]. La dépouille est ensuite réenterrée.
+L'exhumation peut, enfin, faire partie d'un rite funéraire, comme à Madagascar avec le famadihana (retournement des morts), ou au Vietnam avec le Bốc mộ. La dépouille est ensuite réenterrée.
 Elle est strictement interdite par la Loi juive. 
 			Exhumation de Saint Hubert à la collégiale Saint-Pierre de Liège pour invention de reliques (tableau de Rogier van der Weyden, c. 1437).
 			Le pape Formose exhumé pour être jugé lors du concile cadavérique en 897 (tableau de Jean-Paul Laurens, 1870).
